--- a/biology/Médecine/Nerf_pétreux_profond/Nerf_pétreux_profond.xlsx
+++ b/biology/Médecine/Nerf_pétreux_profond/Nerf_pétreux_profond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_p%C3%A9treux_profond</t>
+          <t>Nerf_pétreux_profond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf pétreux profond est une branche du nerf tympanique.
 Il pénètre dans la substance cartilagineuse qui remplit le foramen déchiré et se joint au nerf grand pétreux pour former le nerf du canal ptérygoïdien ou nerf vidien.
